--- a/Project_Management/Sprint5/Scrum Board.xlsx
+++ b/Project_Management/Sprint5/Scrum Board.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Backlog:</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Turno automatico</t>
   </si>
   <si>
+    <t>concluído</t>
+  </si>
+  <si>
     <t>Reunir o grupo para reuniao semanal</t>
   </si>
 </sst>
@@ -81,11 +84,11 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,7 +97,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -105,51 +114,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -169,16 +133,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -195,25 +204,25 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -233,6 +242,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffb2b2b2"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -435,17 +445,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -472,10 +482,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -714,12 +724,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -996,7 +1006,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1023,10 +1033,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1366,16 +1376,18 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
